--- a/db and notes/CV Details for Career Fair website (Responses).xlsx
+++ b/db and notes/CV Details for Career Fair website (Responses).xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webdev\Careers\db and notes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27200" windowHeight="14920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses" sheetId="1" r:id="rId1"/>
@@ -2703,7 +2708,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2718,23 +2723,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF008000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2823,23 +2837,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3167,7 +3181,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3178,46 +3192,46 @@
   <dimension ref="A1:AD58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.83203125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="5.85546875" style="8" customWidth="1"/>
     <col min="2" max="2" width="6" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="8" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="13" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="13" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="106" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.5" style="2" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="10" style="13" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="23.5" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="10" style="13" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" style="2" customWidth="1"/>
-    <col min="20" max="20" width="45.33203125" style="2" customWidth="1"/>
-    <col min="21" max="21" width="42.1640625" style="2" customWidth="1"/>
-    <col min="22" max="22" width="26.1640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10" style="13" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="11" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="8" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="11" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="8" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="38.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="33.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10" style="11" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10" style="11" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="45.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="42.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="10" style="11" customWidth="1"/>
     <col min="24" max="24" width="29" style="2" customWidth="1"/>
-    <col min="25" max="25" width="10" style="13" customWidth="1"/>
-    <col min="26" max="26" width="35.1640625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="10" style="13" customWidth="1"/>
-    <col min="28" max="28" width="30.5" style="2" customWidth="1"/>
-    <col min="29" max="29" width="10" style="13" customWidth="1"/>
-    <col min="30" max="30" width="33.6640625" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="17.1640625" style="2"/>
+    <col min="25" max="25" width="10" style="11" customWidth="1"/>
+    <col min="26" max="26" width="35.140625" style="2" customWidth="1"/>
+    <col min="27" max="27" width="10" style="11" customWidth="1"/>
+    <col min="28" max="28" width="30.42578125" style="2" customWidth="1"/>
+    <col min="29" max="29" width="10" style="11" customWidth="1"/>
+    <col min="30" max="30" width="33.7109375" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="17.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="8" customFormat="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:30" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>471</v>
       </c>
@@ -3230,7 +3244,7 @@
       <c r="D1" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="E1" s="12"/>
+      <c r="E1" s="10"/>
       <c r="F1" s="5" t="s">
         <v>610</v>
       </c>
@@ -3246,7 +3260,7 @@
       <c r="J1" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="K1" s="12"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3259,11 +3273,11 @@
       <c r="O1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="12"/>
+      <c r="P1" s="10"/>
       <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="12"/>
+      <c r="R1" s="10"/>
       <c r="S1" s="1" t="s">
         <v>2</v>
       </c>
@@ -3276,24 +3290,24 @@
       <c r="V1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="12"/>
+      <c r="W1" s="10"/>
       <c r="X1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="12"/>
+      <c r="Y1" s="10"/>
       <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="12"/>
+      <c r="AA1" s="10"/>
       <c r="AB1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AC1" s="12"/>
+      <c r="AC1" s="10"/>
       <c r="AD1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1">
+    <row r="2" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3304,11 +3318,13 @@
       <c r="I2" s="3"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:30" ht="13.5" customHeight="1">
+    <row r="3" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="9" t="s">
         <v>614</v>
       </c>
       <c r="F3" s="6">
@@ -3350,7 +3366,7 @@
       <c r="U3" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="V3" s="14" t="s">
+      <c r="V3" s="12" t="s">
         <v>711</v>
       </c>
       <c r="X3" s="2" t="s">
@@ -3366,12 +3382,13 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1">
+    <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="9" t="s">
         <v>615</v>
       </c>
       <c r="F4" s="6">
@@ -3410,7 +3427,7 @@
       <c r="U4" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="V4" s="14" t="s">
+      <c r="V4" s="12" t="s">
         <v>713</v>
       </c>
       <c r="X4" s="2" t="s">
@@ -3426,11 +3443,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1">
+    <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
       <c r="D5" s="2" t="s">
         <v>616</v>
       </c>
@@ -3470,16 +3488,17 @@
       <c r="U5" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="V5" s="14" t="s">
+      <c r="V5" s="12" t="s">
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1">
+    <row r="6" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="D6" s="10" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="9" t="s">
         <v>617</v>
       </c>
       <c r="F6" s="6">
@@ -3518,7 +3537,7 @@
       <c r="U6" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="V6" s="14" t="s">
+      <c r="V6" s="12" t="s">
         <v>714</v>
       </c>
       <c r="X6" s="2" t="s">
@@ -3534,12 +3553,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1">
+    <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="9" t="s">
         <v>618</v>
       </c>
       <c r="F7" s="6">
@@ -3581,7 +3601,7 @@
       <c r="U7" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="V7" s="14" t="s">
+      <c r="V7" s="12" t="s">
         <v>715</v>
       </c>
       <c r="X7" s="2" t="s">
@@ -3597,12 +3617,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1">
+    <row r="8" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="9" t="s">
         <v>619</v>
       </c>
       <c r="F8" s="6">
@@ -3641,7 +3662,7 @@
       <c r="U8" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="V8" s="14" t="s">
+      <c r="V8" s="12" t="s">
         <v>716</v>
       </c>
       <c r="X8" s="2" t="s">
@@ -3657,12 +3678,13 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1">
+    <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="9" t="s">
         <v>620</v>
       </c>
       <c r="F9" s="6">
@@ -3704,7 +3726,7 @@
       <c r="U9" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="V9" s="14" t="s">
+      <c r="V9" s="12" t="s">
         <v>712</v>
       </c>
       <c r="X9" s="2" t="s">
@@ -3720,11 +3742,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="13.5" customHeight="1">
+    <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="9" t="s">
         <v>621</v>
       </c>
       <c r="F10" s="6">
@@ -3763,7 +3787,7 @@
       <c r="U10" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="V10" s="14" t="s">
+      <c r="V10" s="12" t="s">
         <v>713</v>
       </c>
       <c r="X10" s="2" t="s">
@@ -3779,11 +3803,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="13.5" customHeight="1">
+    <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="9" t="s">
         <v>622</v>
       </c>
       <c r="F11" s="6">
@@ -3822,7 +3848,7 @@
       <c r="U11" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="V11" s="14" t="s">
+      <c r="V11" s="12" t="s">
         <v>717</v>
       </c>
       <c r="X11" s="2" t="s">
@@ -3835,7 +3861,9 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="13.5" customHeight="1">
+    <row r="12" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="4"/>
       <c r="F12" s="6"/>
       <c r="G12" s="4"/>
@@ -3843,11 +3871,13 @@
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="13.5" customHeight="1">
+    <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>11</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9" t="s">
         <v>623</v>
       </c>
       <c r="F13" s="6">
@@ -3886,7 +3916,7 @@
       <c r="U13" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="V13" s="14" t="s">
+      <c r="V13" s="12" t="s">
         <v>718</v>
       </c>
       <c r="X13" s="2" t="s">
@@ -3899,12 +3929,13 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="13.5" customHeight="1">
+    <row r="14" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>12</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="D14" s="10" t="s">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="9" t="s">
         <v>624</v>
       </c>
       <c r="F14" s="6">
@@ -3943,7 +3974,7 @@
       <c r="U14" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="V14" s="14" t="s">
+      <c r="V14" s="12" t="s">
         <v>716</v>
       </c>
       <c r="X14" s="2" t="s">
@@ -3956,12 +3987,13 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="13.5" customHeight="1">
+    <row r="15" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>13</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="D15" s="10" t="s">
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="9" t="s">
         <v>625</v>
       </c>
       <c r="F15" s="6">
@@ -4000,7 +4032,7 @@
       <c r="U15" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="V15" s="14" t="s">
+      <c r="V15" s="12" t="s">
         <v>719</v>
       </c>
       <c r="X15" s="2" t="s">
@@ -4013,12 +4045,13 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="13.5" customHeight="1">
+    <row r="16" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>14</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="D16" s="10" t="s">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="9" t="s">
         <v>626</v>
       </c>
       <c r="F16" s="6">
@@ -4060,7 +4093,7 @@
       <c r="U16" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="V16" s="14" t="s">
+      <c r="V16" s="12" t="s">
         <v>719</v>
       </c>
       <c r="X16" s="2" t="s">
@@ -4076,10 +4109,12 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="13.5" customHeight="1">
+    <row r="17" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8">
         <v>15</v>
       </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="4" t="s">
         <v>566</v>
       </c>
@@ -4122,7 +4157,7 @@
       <c r="U17" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="V17" s="14" t="s">
+      <c r="V17" s="12" t="s">
         <v>717</v>
       </c>
       <c r="X17" s="2" t="s">
@@ -4138,11 +4173,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="13.5" customHeight="1">
+    <row r="18" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8">
         <v>16</v>
       </c>
-      <c r="B18" s="9"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="4" t="s">
         <v>567</v>
       </c>
@@ -4182,7 +4218,7 @@
       <c r="U18" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="V18" s="14" t="s">
+      <c r="V18" s="12" t="s">
         <v>720</v>
       </c>
       <c r="X18" s="2" t="s">
@@ -4195,11 +4231,12 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="13.5" customHeight="1">
+    <row r="19" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8">
         <v>17</v>
       </c>
-      <c r="B19" s="9"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="4" t="s">
         <v>568</v>
       </c>
@@ -4239,7 +4276,7 @@
       <c r="U19" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="12" t="s">
         <v>721</v>
       </c>
       <c r="X19" s="2" t="s">
@@ -4255,11 +4292,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="13.5" customHeight="1">
+    <row r="20" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8">
         <v>18</v>
       </c>
-      <c r="B20" s="9"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="4" t="s">
         <v>569</v>
       </c>
@@ -4302,7 +4340,7 @@
       <c r="U20" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="V20" s="14" t="s">
+      <c r="V20" s="12" t="s">
         <v>715</v>
       </c>
       <c r="X20" s="2" t="s">
@@ -4318,11 +4356,12 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="13.5" customHeight="1">
+    <row r="21" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8">
         <v>19</v>
       </c>
-      <c r="B21" s="9"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="4" t="s">
         <v>570</v>
       </c>
@@ -4362,7 +4401,7 @@
       <c r="U21" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="V21" s="14" t="s">
+      <c r="V21" s="12" t="s">
         <v>722</v>
       </c>
       <c r="X21" s="2" t="s">
@@ -4378,11 +4417,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="13.5" customHeight="1">
+    <row r="22" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8">
         <v>20</v>
       </c>
-      <c r="B22" s="9"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
       <c r="D22" s="4" t="s">
         <v>571</v>
       </c>
@@ -4422,7 +4462,7 @@
       <c r="U22" s="2" t="s">
         <v>741</v>
       </c>
-      <c r="V22" s="14" t="s">
+      <c r="V22" s="12" t="s">
         <v>721</v>
       </c>
       <c r="X22" s="2" t="s">
@@ -4435,7 +4475,9 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="13.5" customHeight="1">
+    <row r="23" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="4"/>
       <c r="F23" s="6"/>
       <c r="G23" s="4"/>
@@ -4443,11 +4485,12 @@
       <c r="I23" s="3"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:30" ht="13.5" customHeight="1">
+    <row r="24" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8">
         <v>21</v>
       </c>
-      <c r="B24" s="9"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="4" t="s">
         <v>572</v>
       </c>
@@ -4487,7 +4530,7 @@
       <c r="U24" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="V24" s="14" t="s">
+      <c r="V24" s="12" t="s">
         <v>714</v>
       </c>
       <c r="X24" s="2" t="s">
@@ -4500,11 +4543,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="13.5" customHeight="1">
+    <row r="25" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8">
         <v>22</v>
       </c>
-      <c r="B25" s="9"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
       <c r="D25" s="4" t="s">
         <v>573</v>
       </c>
@@ -4547,7 +4591,7 @@
       <c r="U25" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="V25" s="14" t="s">
+      <c r="V25" s="12" t="s">
         <v>721</v>
       </c>
       <c r="X25" s="2" t="s">
@@ -4563,11 +4607,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="13.5" customHeight="1">
+    <row r="26" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>23</v>
       </c>
-      <c r="B26" s="9"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
       <c r="D26" s="4" t="s">
         <v>574</v>
       </c>
@@ -4607,7 +4652,7 @@
       <c r="U26" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="V26" s="14" t="s">
+      <c r="V26" s="12" t="s">
         <v>713</v>
       </c>
       <c r="X26" s="2" t="s">
@@ -4620,11 +4665,12 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="13.5" customHeight="1">
+    <row r="27" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8">
         <v>24</v>
       </c>
-      <c r="B27" s="9"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
       <c r="D27" s="4" t="s">
         <v>575</v>
       </c>
@@ -4664,7 +4710,7 @@
       <c r="U27" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="V27" s="14" t="s">
+      <c r="V27" s="12" t="s">
         <v>718</v>
       </c>
       <c r="X27" s="2" t="s">
@@ -4680,11 +4726,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="13.5" customHeight="1">
+    <row r="28" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>25</v>
       </c>
-      <c r="B28" s="9"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="4" t="s">
         <v>576</v>
       </c>
@@ -4724,7 +4771,7 @@
       <c r="U28" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="V28" s="14" t="s">
+      <c r="V28" s="12" t="s">
         <v>719</v>
       </c>
       <c r="X28" s="2" t="s">
@@ -4740,11 +4787,12 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="13.5" customHeight="1">
+    <row r="29" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8">
         <v>26</v>
       </c>
-      <c r="B29" s="9"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
       <c r="D29" s="4" t="s">
         <v>577</v>
       </c>
@@ -4784,7 +4832,7 @@
       <c r="U29" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="V29" s="14" t="s">
+      <c r="V29" s="12" t="s">
         <v>723</v>
       </c>
       <c r="X29" s="2" t="s">
@@ -4797,11 +4845,12 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="13.5" customHeight="1">
+    <row r="30" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8">
         <v>27</v>
       </c>
-      <c r="B30" s="9"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
       <c r="D30" s="4" t="s">
         <v>578</v>
       </c>
@@ -4841,7 +4890,7 @@
       <c r="U30" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="V30" s="14" t="s">
+      <c r="V30" s="12" t="s">
         <v>717</v>
       </c>
       <c r="X30" s="2" t="s">
@@ -4854,10 +4903,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="13.5" customHeight="1">
+    <row r="31" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8">
         <v>28</v>
       </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="4" t="s">
         <v>579</v>
       </c>
@@ -4900,7 +4951,7 @@
       <c r="U31" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="V31" s="14" t="s">
+      <c r="V31" s="12" t="s">
         <v>722</v>
       </c>
       <c r="X31" s="2" t="s">
@@ -4916,10 +4967,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="13.5" customHeight="1">
+    <row r="32" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>29</v>
       </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
       <c r="D32" s="4" t="s">
         <v>580</v>
       </c>
@@ -4959,7 +5012,7 @@
       <c r="U32" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="V32" s="14">
+      <c r="V32" s="12">
         <v>106</v>
       </c>
       <c r="X32" s="2" t="s">
@@ -4972,10 +5025,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="13.5" customHeight="1">
+    <row r="33" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8">
         <v>30</v>
       </c>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
       <c r="D33" s="4" t="s">
         <v>581</v>
       </c>
@@ -5015,7 +5070,7 @@
       <c r="U33" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="V33" s="14" t="s">
+      <c r="V33" s="12" t="s">
         <v>717</v>
       </c>
       <c r="X33" s="2" t="s">
@@ -5031,7 +5086,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="13.5" customHeight="1">
+    <row r="34" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="4"/>
       <c r="F34" s="6"/>
       <c r="G34" s="4"/>
@@ -5039,11 +5096,12 @@
       <c r="I34" s="3"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:30" ht="13.5" customHeight="1">
+    <row r="35" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8">
         <v>31</v>
       </c>
-      <c r="B35" s="9"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
       <c r="D35" s="4" t="s">
         <v>582</v>
       </c>
@@ -5083,7 +5141,7 @@
       <c r="U35" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="V35" s="14" t="s">
+      <c r="V35" s="12" t="s">
         <v>724</v>
       </c>
       <c r="X35" s="2" t="s">
@@ -5096,11 +5154,12 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="13.5" customHeight="1">
+    <row r="36" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
         <v>32</v>
       </c>
-      <c r="B36" s="9"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
       <c r="D36" s="4" t="s">
         <v>583</v>
       </c>
@@ -5140,7 +5199,7 @@
       <c r="U36" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="V36" s="14" t="s">
+      <c r="V36" s="12" t="s">
         <v>725</v>
       </c>
       <c r="X36" s="2" t="s">
@@ -5153,11 +5212,12 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="13.5" customHeight="1">
+    <row r="37" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8">
         <v>33</v>
       </c>
-      <c r="B37" s="9"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
       <c r="D37" s="4" t="s">
         <v>584</v>
       </c>
@@ -5197,7 +5257,7 @@
       <c r="U37" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="V37" s="14" t="s">
+      <c r="V37" s="12" t="s">
         <v>726</v>
       </c>
       <c r="X37" s="2" t="s">
@@ -5210,11 +5270,12 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="13.5" customHeight="1">
+    <row r="38" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>34</v>
       </c>
-      <c r="B38" s="9"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
       <c r="D38" s="4" t="s">
         <v>585</v>
       </c>
@@ -5254,7 +5315,7 @@
       <c r="U38" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="V38" s="14" t="s">
+      <c r="V38" s="12" t="s">
         <v>727</v>
       </c>
       <c r="X38" s="2" t="s">
@@ -5270,11 +5331,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="13.5" customHeight="1">
+    <row r="39" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8">
         <v>35</v>
       </c>
-      <c r="B39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
       <c r="D39" s="4" t="s">
         <v>586</v>
       </c>
@@ -5314,7 +5376,7 @@
       <c r="U39" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="V39" s="14" t="s">
+      <c r="V39" s="12" t="s">
         <v>713</v>
       </c>
       <c r="X39" s="2" t="s">
@@ -5330,11 +5392,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="13.5" customHeight="1">
+    <row r="40" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8">
         <v>36</v>
       </c>
-      <c r="B40" s="9"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
       <c r="D40" s="4" t="s">
         <v>587</v>
       </c>
@@ -5377,7 +5440,7 @@
       <c r="U40" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="V40" s="14" t="s">
+      <c r="V40" s="12" t="s">
         <v>719</v>
       </c>
       <c r="X40" s="2" t="s">
@@ -5390,11 +5453,12 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="13.5" customHeight="1">
+    <row r="41" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8">
         <v>37</v>
       </c>
-      <c r="B41" s="9"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
       <c r="D41" s="4" t="s">
         <v>588</v>
       </c>
@@ -5437,7 +5501,7 @@
       <c r="U41" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="V41" s="14" t="s">
+      <c r="V41" s="12" t="s">
         <v>713</v>
       </c>
       <c r="X41" s="2" t="s">
@@ -5453,11 +5517,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="13.5" customHeight="1">
+    <row r="42" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8">
         <v>38</v>
       </c>
-      <c r="B42" s="9"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="4" t="s">
         <v>589</v>
       </c>
@@ -5500,7 +5565,7 @@
       <c r="U42" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="V42" s="14" t="s">
+      <c r="V42" s="12" t="s">
         <v>728</v>
       </c>
       <c r="X42" s="2" t="s">
@@ -5516,10 +5581,12 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="13.5" customHeight="1">
+    <row r="43" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>39</v>
       </c>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="4" t="s">
         <v>590</v>
       </c>
@@ -5562,7 +5629,7 @@
       <c r="U43" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="V43" s="14" t="s">
+      <c r="V43" s="12" t="s">
         <v>721</v>
       </c>
       <c r="X43" s="2" t="s">
@@ -5578,11 +5645,12 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="13.5" customHeight="1">
+    <row r="44" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8">
         <v>40</v>
       </c>
-      <c r="B44" s="9"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="4" t="s">
         <v>591</v>
       </c>
@@ -5622,7 +5690,7 @@
       <c r="U44" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="V44" s="14" t="s">
+      <c r="V44" s="12" t="s">
         <v>729</v>
       </c>
       <c r="X44" s="2" t="s">
@@ -5638,7 +5706,9 @@
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="13.5" customHeight="1">
+    <row r="45" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
       <c r="D45" s="4"/>
       <c r="F45" s="6"/>
       <c r="G45" s="4"/>
@@ -5646,11 +5716,12 @@
       <c r="I45" s="3"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:30" ht="13.5" customHeight="1">
+    <row r="46" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8">
         <v>41</v>
       </c>
-      <c r="B46" s="9"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
       <c r="D46" s="4" t="s">
         <v>592</v>
       </c>
@@ -5693,7 +5764,7 @@
       <c r="U46" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="V46" s="14" t="s">
+      <c r="V46" s="12" t="s">
         <v>721</v>
       </c>
       <c r="X46" s="2" t="s">
@@ -5709,11 +5780,12 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="13.5" customHeight="1">
+    <row r="47" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>42</v>
       </c>
-      <c r="B47" s="9"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
       <c r="D47" s="4" t="s">
         <v>593</v>
       </c>
@@ -5753,7 +5825,7 @@
       <c r="U47" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="V47" s="14" t="s">
+      <c r="V47" s="12" t="s">
         <v>718</v>
       </c>
       <c r="X47" s="2" t="s">
@@ -5769,11 +5841,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="13.5" customHeight="1">
+    <row r="48" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
         <v>43</v>
       </c>
-      <c r="B48" s="9"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
       <c r="D48" s="4" t="s">
         <v>594</v>
       </c>
@@ -5813,7 +5886,7 @@
       <c r="U48" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="V48" s="14" t="s">
+      <c r="V48" s="12" t="s">
         <v>721</v>
       </c>
       <c r="X48" s="2" t="s">
@@ -5829,11 +5902,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="13.5" customHeight="1">
+    <row r="49" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8">
         <v>44</v>
       </c>
-      <c r="B49" s="9"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
       <c r="D49" s="4" t="s">
         <v>595</v>
       </c>
@@ -5876,7 +5950,7 @@
       <c r="U49" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="V49" s="14">
+      <c r="V49" s="12">
         <v>109</v>
       </c>
       <c r="X49" s="2" t="s">
@@ -5889,11 +5963,12 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="13.5" customHeight="1">
+    <row r="50" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8">
         <v>45</v>
       </c>
-      <c r="B50" s="9"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
       <c r="D50" s="4" t="s">
         <v>596</v>
       </c>
@@ -5924,7 +5999,7 @@
       <c r="O50" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="S50" s="14">
+      <c r="S50" s="12">
         <v>7</v>
       </c>
       <c r="T50" s="2" t="s">
@@ -5933,7 +6008,7 @@
       <c r="U50" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="V50" s="14" t="s">
+      <c r="V50" s="12" t="s">
         <v>716</v>
       </c>
       <c r="X50" s="2" t="s">
@@ -5949,11 +6024,12 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="13.5" customHeight="1">
+    <row r="51" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>46</v>
       </c>
-      <c r="B51" s="9"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
       <c r="D51" s="4" t="s">
         <v>597</v>
       </c>
@@ -5993,7 +6069,7 @@
       <c r="U51" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="V51" s="14" t="s">
+      <c r="V51" s="12" t="s">
         <v>717</v>
       </c>
       <c r="X51" s="2" t="s">
@@ -6009,11 +6085,12 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="13.5" customHeight="1">
+    <row r="52" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8">
         <v>47</v>
       </c>
-      <c r="B52" s="9"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
       <c r="D52" s="4" t="s">
         <v>598</v>
       </c>
@@ -6053,7 +6130,7 @@
       <c r="U52" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="V52" s="14" t="s">
+      <c r="V52" s="12" t="s">
         <v>719</v>
       </c>
       <c r="X52" s="2" t="s">
@@ -6069,11 +6146,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="13.5" customHeight="1">
+    <row r="53" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8">
         <v>48</v>
       </c>
-      <c r="B53" s="9"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
       <c r="D53" s="4" t="s">
         <v>599</v>
       </c>
@@ -6113,7 +6191,7 @@
       <c r="U53" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="V53" s="14" t="s">
+      <c r="V53" s="12" t="s">
         <v>729</v>
       </c>
       <c r="X53" s="2" t="s">
@@ -6129,11 +6207,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="13.5" customHeight="1">
+    <row r="54" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8">
         <v>49</v>
       </c>
-      <c r="B54" s="9"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
       <c r="D54" s="4" t="s">
         <v>600</v>
       </c>
@@ -6173,7 +6252,7 @@
       <c r="U54" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="V54" s="14" t="s">
+      <c r="V54" s="12" t="s">
         <v>723</v>
       </c>
       <c r="X54" s="2" t="s">
@@ -6189,10 +6268,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="13.5" customHeight="1">
+    <row r="55" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8">
         <v>50</v>
       </c>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
       <c r="D55" s="4" t="s">
         <v>601</v>
       </c>
@@ -6235,7 +6316,7 @@
       <c r="U55" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="V55" s="14" t="s">
+      <c r="V55" s="12" t="s">
         <v>730</v>
       </c>
       <c r="X55" s="2" t="s">
@@ -6248,11 +6329,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="13.5" customHeight="1">
+    <row r="56" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8">
         <v>51</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="4" t="s">
         <v>602</v>
       </c>
@@ -6295,7 +6377,7 @@
       <c r="U56" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="V56" s="14" t="s">
+      <c r="V56" s="12" t="s">
         <v>731</v>
       </c>
       <c r="X56" s="2" t="s">
@@ -6308,11 +6390,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="13.5" customHeight="1">
+    <row r="57" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8">
         <v>52</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
       <c r="D57" s="4" t="s">
         <v>603</v>
       </c>
@@ -6352,7 +6435,7 @@
       <c r="U57" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="V57" s="14" t="s">
+      <c r="V57" s="12" t="s">
         <v>721</v>
       </c>
       <c r="X57" s="2" t="s">
@@ -6365,11 +6448,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="13.5" customHeight="1">
+    <row r="58" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8">
         <v>53</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
       <c r="D58" s="4" t="s">
         <v>604</v>
       </c>
@@ -6409,7 +6493,7 @@
       <c r="U58" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="V58" s="14" t="s">
+      <c r="V58" s="12" t="s">
         <v>722</v>
       </c>
       <c r="X58" s="2" t="s">
@@ -6432,7 +6516,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <ignoredErrors>
-    <ignoredError sqref="S11 S13" twoDigitTextYear="1"/>
+    <ignoredError sqref="S11 S13 S42" twoDigitTextYear="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/db and notes/CV Details for Career Fair website (Responses).xlsx
+++ b/db and notes/CV Details for Career Fair website (Responses).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\webdev\Careers\db and notes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14920"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="798">
   <si>
     <t>Degree Program</t>
   </si>
@@ -2664,6 +2659,40 @@
   </si>
   <si>
     <t>'106', '108', '109', '110', '111'</t>
+  </si>
+  <si>
+    <t>ravihansa3000@gmail.com</t>
+  </si>
+  <si>
+    <t>A versatile and professional software graduate with a commitment 
+to developing innovative software solutions. Possess a very good understanding of software development methodologies, design patterns and life-cycle.</t>
+  </si>
+  <si>
+    <t>Semantic Context-Aware Service Discovery with QoS Support in Opportunistic Mobile Networks</t>
+  </si>
+  <si>
+    <t>The goal of this project is to build an effective model for semantic capability discovery, resource utilization and service-request matchmaking in opportunistic networks. This project aims to identify how the concepts of QoS requirements, expressed through the means of the Semantic Web in the service delivery process, can fit into the opportunistic networks context.</t>
+  </si>
+  <si>
+    <t>{Virtusa Pvt. Ltd.}, {Intern - developer}, {April}, {2012}, {September}, {2012}</t>
+  </si>
+  <si>
+    <t>{CCNA}, {Cisco Systems Inc.}, {2012}</t>
+  </si>
+  <si>
+    <t>Akila</t>
+  </si>
+  <si>
+    <t>akila.perera</t>
+  </si>
+  <si>
+    <t>+94-776-415438</t>
+  </si>
+  <si>
+    <t>51, 40, 46, 47, 34, 19, 54, 38, 29, 35, 27, 18, 22, 21, 25, 37, 31, 24, 55, 52, 49, 39, 41, 43, 16, 30</t>
+  </si>
+  <si>
+    <t>102, 60, 86, 96, 84, 90, 101, 99, 68, 103, 76, 64, 98, 71, 97, 61, 66, 93</t>
   </si>
 </sst>
 </file>
@@ -2738,21 +2767,21 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2808,8 +2837,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2855,8 +2934,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="105">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2884,6 +2966,31 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2911,6 +3018,31 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3181,7 +3313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3189,49 +3321,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD58"/>
+  <dimension ref="A1:AD59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="6" style="8" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="11" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="18.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="11" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="8" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="21.42578125" style="2" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="38.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="33.42578125" style="2" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="6" style="8" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="11" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="18.5" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10" style="11" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" style="8" customWidth="1"/>
+    <col min="13" max="13" width="21.5" style="2" customWidth="1"/>
+    <col min="14" max="14" width="38.33203125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="33.5" style="2" customWidth="1"/>
     <col min="16" max="16" width="10" style="11" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="10" style="11" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="45.28515625" style="2" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="42.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="26.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="23.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10" style="11" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="2" customWidth="1"/>
+    <col min="20" max="20" width="45.33203125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="42.1640625" style="2" customWidth="1"/>
+    <col min="22" max="22" width="26.1640625" style="12" customWidth="1"/>
     <col min="23" max="23" width="10" style="11" customWidth="1"/>
     <col min="24" max="24" width="29" style="2" customWidth="1"/>
     <col min="25" max="25" width="10" style="11" customWidth="1"/>
-    <col min="26" max="26" width="35.140625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="35.1640625" style="2" customWidth="1"/>
     <col min="27" max="27" width="10" style="11" customWidth="1"/>
-    <col min="28" max="28" width="30.42578125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="30.5" style="2" customWidth="1"/>
     <col min="29" max="29" width="10" style="11" customWidth="1"/>
-    <col min="30" max="30" width="33.7109375" style="2" customWidth="1"/>
-    <col min="31" max="16384" width="17.140625" style="2"/>
+    <col min="30" max="30" width="33.6640625" style="2" customWidth="1"/>
+    <col min="31" max="16384" width="17.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" s="8" customFormat="1" ht="13.5" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>471</v>
       </c>
@@ -3307,7 +3439,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="13.5" customHeight="1">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -3318,7 +3450,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="13.5" customHeight="1">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -3382,7 +3514,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="13.5" customHeight="1">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -3443,7 +3575,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="13.5" customHeight="1">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -3492,7 +3624,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="13.5" customHeight="1">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -3553,7 +3685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="13.5" customHeight="1">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -3617,7 +3749,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="13.5" customHeight="1">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -3678,7 +3810,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="9" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="13.5" customHeight="1">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -3742,7 +3874,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="13.5" customHeight="1">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -3803,7 +3935,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="13.5" customHeight="1">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -3861,7 +3993,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="12" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="13.5" customHeight="1">
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
       <c r="D12" s="4"/>
@@ -3871,7 +4003,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="13.5" customHeight="1">
       <c r="A13" s="8">
         <v>11</v>
       </c>
@@ -3929,7 +4061,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="14" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="13.5" customHeight="1">
       <c r="A14" s="8">
         <v>12</v>
       </c>
@@ -3987,7 +4119,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="15" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="13.5" customHeight="1">
       <c r="A15" s="8">
         <v>13</v>
       </c>
@@ -4045,7 +4177,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="13.5" customHeight="1">
       <c r="A16" s="8">
         <v>14</v>
       </c>
@@ -4109,7 +4241,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="17" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="13.5" customHeight="1">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -4173,7 +4305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="13.5" customHeight="1">
       <c r="A18" s="8">
         <v>16</v>
       </c>
@@ -4231,7 +4363,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="13.5" customHeight="1">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -4292,7 +4424,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="13.5" customHeight="1">
       <c r="A20" s="8">
         <v>18</v>
       </c>
@@ -4356,7 +4488,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="21" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="13.5" customHeight="1">
       <c r="A21" s="8">
         <v>19</v>
       </c>
@@ -4417,7 +4549,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="13.5" customHeight="1">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -4475,7 +4607,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="13.5" customHeight="1">
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="4"/>
@@ -4485,7 +4617,7 @@
       <c r="I23" s="3"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="13.5" customHeight="1">
       <c r="A24" s="8">
         <v>21</v>
       </c>
@@ -4543,7 +4675,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="13.5" customHeight="1">
       <c r="A25" s="8">
         <v>22</v>
       </c>
@@ -4607,7 +4739,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="13.5" customHeight="1">
       <c r="A26" s="8">
         <v>23</v>
       </c>
@@ -4665,7 +4797,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="27" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="13.5" customHeight="1">
       <c r="A27" s="8">
         <v>24</v>
       </c>
@@ -4726,7 +4858,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="28" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="13.5" customHeight="1">
       <c r="A28" s="8">
         <v>25</v>
       </c>
@@ -4787,7 +4919,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="29" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="13.5" customHeight="1">
       <c r="A29" s="8">
         <v>26</v>
       </c>
@@ -4845,7 +4977,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="30" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="13.5" customHeight="1">
       <c r="A30" s="8">
         <v>27</v>
       </c>
@@ -4903,7 +5035,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="13.5" customHeight="1">
       <c r="A31" s="8">
         <v>28</v>
       </c>
@@ -4967,7 +5099,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="32" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="13.5" customHeight="1">
       <c r="A32" s="8">
         <v>29</v>
       </c>
@@ -5025,7 +5157,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="13.5" customHeight="1">
       <c r="A33" s="8">
         <v>30</v>
       </c>
@@ -5086,7 +5218,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="13.5" customHeight="1">
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
       <c r="D34" s="4"/>
@@ -5096,7 +5228,7 @@
       <c r="I34" s="3"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="13.5" customHeight="1">
       <c r="A35" s="8">
         <v>31</v>
       </c>
@@ -5154,7 +5286,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="36" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="13.5" customHeight="1">
       <c r="A36" s="8">
         <v>32</v>
       </c>
@@ -5212,7 +5344,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="37" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="13.5" customHeight="1">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -5270,7 +5402,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="13.5" customHeight="1">
       <c r="A38" s="8">
         <v>34</v>
       </c>
@@ -5331,7 +5463,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="13.5" customHeight="1">
       <c r="A39" s="8">
         <v>35</v>
       </c>
@@ -5392,7 +5524,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="13.5" customHeight="1">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -5453,7 +5585,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="41" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="13.5" customHeight="1">
       <c r="A41" s="8">
         <v>37</v>
       </c>
@@ -5517,7 +5649,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="42" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="13.5" customHeight="1">
       <c r="A42" s="8">
         <v>38</v>
       </c>
@@ -5581,7 +5713,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="43" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="13.5" customHeight="1">
       <c r="A43" s="8">
         <v>39</v>
       </c>
@@ -5645,7 +5777,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="13.5" customHeight="1">
       <c r="A44" s="8">
         <v>40</v>
       </c>
@@ -5706,7 +5838,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="45" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="13.5" customHeight="1">
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
       <c r="D45" s="4"/>
@@ -5716,7 +5848,7 @@
       <c r="I45" s="3"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="13.5" customHeight="1">
       <c r="A46" s="8">
         <v>41</v>
       </c>
@@ -5780,7 +5912,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="47" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="13.5" customHeight="1">
       <c r="A47" s="8">
         <v>42</v>
       </c>
@@ -5841,7 +5973,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="48" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="13.5" customHeight="1">
       <c r="A48" s="8">
         <v>43</v>
       </c>
@@ -5902,7 +6034,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="13.5" customHeight="1">
       <c r="A49" s="8">
         <v>44</v>
       </c>
@@ -5963,7 +6095,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="50" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="13.5" customHeight="1">
       <c r="A50" s="8">
         <v>45</v>
       </c>
@@ -6024,7 +6156,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="13.5" customHeight="1">
       <c r="A51" s="8">
         <v>46</v>
       </c>
@@ -6085,7 +6217,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="13.5" customHeight="1">
       <c r="A52" s="8">
         <v>47</v>
       </c>
@@ -6146,7 +6278,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="13.5" customHeight="1">
       <c r="A53" s="8">
         <v>48</v>
       </c>
@@ -6207,7 +6339,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="54" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="13.5" customHeight="1">
       <c r="A54" s="8">
         <v>49</v>
       </c>
@@ -6268,7 +6400,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="55" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" ht="13.5" customHeight="1">
       <c r="A55" s="8">
         <v>50</v>
       </c>
@@ -6329,7 +6461,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="56" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="13.5" customHeight="1">
       <c r="A56" s="8">
         <v>51</v>
       </c>
@@ -6390,7 +6522,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="57" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="13.5" customHeight="1">
       <c r="A57" s="8">
         <v>52</v>
       </c>
@@ -6448,7 +6580,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="58" spans="1:30" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="13.5" customHeight="1">
       <c r="A58" s="8">
         <v>53</v>
       </c>
@@ -6507,6 +6639,61 @@
       </c>
       <c r="AD58" s="2" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A59" s="8">
+        <v>54</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="F59" s="8">
+        <v>123</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>793</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="J59" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="L59" s="8">
+        <v>1</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="N59" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>790</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="T59" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="U59" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="V59" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="X59" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="AB59" s="2" t="s">
+        <v>792</v>
       </c>
     </row>
   </sheetData>

--- a/db and notes/CV Details for Career Fair website (Responses).xlsx
+++ b/db and notes/CV Details for Career Fair website (Responses).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="23613"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14920"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25520" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses" sheetId="1" r:id="rId1"/>
@@ -3313,7 +3313,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3323,9 +3323,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0"/>
